--- a/wip/PARAMETER NUMBERING.xlsx
+++ b/wip/PARAMETER NUMBERING.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WinDows\Desktop\BBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BBS_SOURCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50ED24-2443-4F17-A8E6-B9C4A96E6DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37131BC-C04C-43D7-B911-EBF21132B08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="29">
   <si>
     <t>BAR-01-01</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>BAR-05-01</t>
+  </si>
+  <si>
+    <t>UpdatedDistance</t>
   </si>
 </sst>
 </file>
@@ -436,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +474,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -482,6 +488,9 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -493,6 +502,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -504,6 +516,9 @@
       <c r="C5">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -515,6 +530,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -526,6 +544,9 @@
       <c r="C7">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -537,6 +558,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -548,6 +572,9 @@
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -559,6 +586,9 @@
       <c r="C10">
         <v>15</v>
       </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -570,6 +600,9 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -581,6 +614,9 @@
       <c r="C12">
         <v>8</v>
       </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -592,6 +628,9 @@
       <c r="C13">
         <v>15</v>
       </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -603,6 +642,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -614,6 +656,9 @@
       <c r="C15">
         <v>8</v>
       </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -625,6 +670,9 @@
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -636,6 +684,9 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -647,6 +698,9 @@
       <c r="C18">
         <v>8</v>
       </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -658,6 +712,9 @@
       <c r="C19">
         <v>15</v>
       </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -669,6 +726,9 @@
       <c r="C20">
         <v>22</v>
       </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -680,6 +740,9 @@
       <c r="C21">
         <v>2</v>
       </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -705,6 +768,9 @@
       <c r="C23">
         <v>22</v>
       </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -730,6 +796,9 @@
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -741,6 +810,9 @@
       <c r="C26">
         <v>8</v>
       </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -752,6 +824,9 @@
       <c r="C27">
         <v>15</v>
       </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -763,6 +838,9 @@
       <c r="C28">
         <v>22</v>
       </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -774,6 +852,9 @@
       <c r="C29">
         <v>29</v>
       </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -785,6 +866,9 @@
       <c r="C30">
         <v>36</v>
       </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -796,6 +880,9 @@
       <c r="C31">
         <v>49</v>
       </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -807,8 +894,11 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -818,8 +908,11 @@
       <c r="C33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -829,8 +922,11 @@
       <c r="C34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -840,8 +936,11 @@
       <c r="C35">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -851,8 +950,11 @@
       <c r="C36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -862,8 +964,11 @@
       <c r="C37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -873,8 +978,11 @@
       <c r="C38">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -884,8 +992,11 @@
       <c r="C39">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -895,8 +1006,11 @@
       <c r="C40">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -906,8 +1020,11 @@
       <c r="C41">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -917,8 +1034,11 @@
       <c r="C42">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -928,8 +1048,11 @@
       <c r="C43">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -939,8 +1062,11 @@
       <c r="C44">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -950,8 +1076,11 @@
       <c r="C45">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -961,8 +1090,11 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -972,8 +1104,11 @@
       <c r="C47">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -983,8 +1118,11 @@
       <c r="C48">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -994,8 +1132,11 @@
       <c r="C49">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1004,6 +1145,9 @@
       </c>
       <c r="C50">
         <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
